--- a/trunk/1. Project management/9. Weekly report and evaluation/Team's evaluation/AD_PM_TeamEvaluation_Week28_15.05 - 21.05.xlsx
+++ b/trunk/1. Project management/9. Weekly report and evaluation/Team's evaluation/AD_PM_TeamEvaluation_Week28_15.05 - 21.05.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngoc\Dropbox\AD-DeadlineTeam\1. Project management\7. Report and evaluation_reviewed\1. Evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Weekly report and evaluation\Team's evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="838"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="838" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LeNgocChau" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -839,16 +839,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -860,15 +869,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -881,6 +881,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1195,8 +1196,8 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1541,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:G12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2811,10 +2812,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="115"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="129"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="131"/>
       <c r="H11" s="42" t="s">
         <v>17</v>
       </c>
@@ -2827,10 +2828,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="115"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="42" t="s">
         <v>17</v>
       </c>
@@ -2879,10 +2880,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="116"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="131"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="129"/>
       <c r="H15" s="49" t="s">
         <v>17</v>
       </c>
@@ -2910,7 +2911,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3141,11 +3142,11 @@
       <c r="B11" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="134"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="137"/>
       <c r="H11" s="42" t="s">
         <v>19</v>
       </c>
@@ -3157,11 +3158,11 @@
       <c r="B12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="134"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="137"/>
       <c r="H12" s="59" t="s">
         <v>19</v>
       </c>
@@ -3209,11 +3210,11 @@
       <c r="B15" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="134"/>
       <c r="H15" s="62" t="s">
         <v>19</v>
       </c>
@@ -3235,10 +3236,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:G15"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3358,24 +3359,24 @@
         <v>13</v>
       </c>
       <c r="C5" s="72">
-        <f>AVERAGE(KhauThanhDao!C5,LeNgocChau!C4,NguyenPhanXuanHuy!C5,HuynhTrongKhang!C5,TaNgocThienPhu!C5)</f>
-        <v>96.4</v>
+        <f>AVERAGE(KhauThanhDao!C4,LeNgocChau!C4,NguyenPhanXuanHuy!C5,HuynhTrongKhang!C5,TaNgocThienPhu!C5)</f>
+        <v>98</v>
       </c>
       <c r="D5" s="72">
-        <f>AVERAGE(KhauThanhDao!D5,LeNgocChau!D4,NguyenPhanXuanHuy!D5,HuynhTrongKhang!D5,TaNgocThienPhu!D5)</f>
-        <v>96.4</v>
+        <f>AVERAGE(KhauThanhDao!D4,LeNgocChau!D4,NguyenPhanXuanHuy!D5,HuynhTrongKhang!D5,TaNgocThienPhu!D5)</f>
+        <v>98</v>
       </c>
       <c r="E5" s="72">
-        <f>AVERAGE(KhauThanhDao!E5,LeNgocChau!E4,NguyenPhanXuanHuy!E5,HuynhTrongKhang!E5,TaNgocThienPhu!E5)</f>
-        <v>96.4</v>
+        <f>AVERAGE(KhauThanhDao!E4,LeNgocChau!E4,NguyenPhanXuanHuy!E5,HuynhTrongKhang!E5,TaNgocThienPhu!E5)</f>
+        <v>98</v>
       </c>
       <c r="F5" s="72">
-        <f>AVERAGE(KhauThanhDao!F5,LeNgocChau!F4,NguyenPhanXuanHuy!F5,HuynhTrongKhang!F5,TaNgocThienPhu!F5)</f>
-        <v>96.4</v>
+        <f>AVERAGE(KhauThanhDao!F4,LeNgocChau!F4,NguyenPhanXuanHuy!F5,HuynhTrongKhang!F5,TaNgocThienPhu!F5)</f>
+        <v>98</v>
       </c>
       <c r="G5" s="58">
         <f t="shared" si="0"/>
-        <v>0.96400000000000008</v>
+        <v>0.98</v>
       </c>
       <c r="H5" s="42" t="s">
         <v>24</v>
@@ -3522,10 +3523,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="115"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="42" t="s">
         <v>24</v>
       </c>
@@ -3538,10 +3539,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="115"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="129"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131"/>
       <c r="H13" s="59" t="s">
         <v>24</v>
       </c>
@@ -3590,10 +3591,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="115"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="59" t="s">
         <v>24</v>
       </c>
@@ -3606,10 +3607,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="116"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="131"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="129"/>
       <c r="H17" s="62" t="s">
         <v>24</v>
       </c>
@@ -3633,6 +3634,9 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3656,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3790,27 +3794,27 @@
         <v>13</v>
       </c>
       <c r="C5" s="51">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D5" s="51">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E5" s="51">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="51">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5" s="58">
         <f t="shared" si="0"/>
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="H5" s="73">
         <v>0</v>
       </c>
       <c r="I5" s="73">
         <f t="shared" si="1"/>
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="J5" s="42" t="s">
         <v>24</v>
@@ -3972,10 +3976,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="115"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="57" t="s">
         <v>24</v>
       </c>
@@ -3990,10 +3994,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="115"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="129"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="131"/>
       <c r="H13" s="65" t="s">
         <v>24</v>
       </c>
@@ -4048,10 +4052,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="115"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="65" t="s">
         <v>24</v>
       </c>
@@ -4066,10 +4070,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="116"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="131"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="129"/>
       <c r="H17" s="66" t="s">
         <v>24</v>
       </c>

--- a/trunk/1. Project management/9. Weekly report and evaluation/Team's evaluation/AD_PM_TeamEvaluation_Week28_15.05 - 21.05.xlsx
+++ b/trunk/1. Project management/9. Weekly report and evaluation/Team's evaluation/AD_PM_TeamEvaluation_Week28_15.05 - 21.05.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\1. Project management\9. Weekly report and evaluation\Team's evaluation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ngoc\Dropbox\AD-DeadlineTeam\1. Project management\7. Report and evaluation_reviewed\1. Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -480,7 +480,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -881,7 +881,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,7 +1196,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1541,7 +1540,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2579,7 +2578,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2911,7 +2910,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3236,10 +3235,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3359,19 +3358,19 @@
         <v>13</v>
       </c>
       <c r="C5" s="72">
-        <f>AVERAGE(KhauThanhDao!C4,LeNgocChau!C4,NguyenPhanXuanHuy!C5,HuynhTrongKhang!C5,TaNgocThienPhu!C5)</f>
+        <f>AVERAGE(LeNgocChau!C4,KhauThanhDao!C4,NguyenPhanXuanHuy!C5,HuynhTrongKhang!C5,TaNgocThienPhu!C5)</f>
         <v>98</v>
       </c>
       <c r="D5" s="72">
-        <f>AVERAGE(KhauThanhDao!D4,LeNgocChau!D4,NguyenPhanXuanHuy!D5,HuynhTrongKhang!D5,TaNgocThienPhu!D5)</f>
+        <f>AVERAGE(LeNgocChau!D4,KhauThanhDao!D4,NguyenPhanXuanHuy!D5,HuynhTrongKhang!D5,TaNgocThienPhu!D5)</f>
         <v>98</v>
       </c>
       <c r="E5" s="72">
-        <f>AVERAGE(KhauThanhDao!E4,LeNgocChau!E4,NguyenPhanXuanHuy!E5,HuynhTrongKhang!E5,TaNgocThienPhu!E5)</f>
+        <f>AVERAGE(LeNgocChau!E4,KhauThanhDao!E4,NguyenPhanXuanHuy!E5,HuynhTrongKhang!E5,TaNgocThienPhu!E5)</f>
         <v>98</v>
       </c>
       <c r="F5" s="72">
-        <f>AVERAGE(KhauThanhDao!F4,LeNgocChau!F4,NguyenPhanXuanHuy!F5,HuynhTrongKhang!F5,TaNgocThienPhu!F5)</f>
+        <f>AVERAGE(LeNgocChau!F4,KhauThanhDao!F4,NguyenPhanXuanHuy!F5,HuynhTrongKhang!F5,TaNgocThienPhu!F5)</f>
         <v>98</v>
       </c>
       <c r="G5" s="58">
@@ -3390,24 +3389,24 @@
         <v>15</v>
       </c>
       <c r="C6" s="72">
-        <f>AVERAGE(KhauThanhDao!C6,NgoQuangHuy!C6,LeNgocChau!C5,HuynhTrongKhang!C6,TaNgocThienPhu!C6)</f>
-        <v>94</v>
+        <f>AVERAGE(LeNgocChau!C5,KhauThanhDao!C5,NgoQuangHuy!C5,HuynhTrongKhang!C6,TaNgocThienPhu!C6)</f>
+        <v>90</v>
       </c>
       <c r="D6" s="72">
-        <f>AVERAGE(KhauThanhDao!D6,NgoQuangHuy!D6,LeNgocChau!D5,HuynhTrongKhang!D6,TaNgocThienPhu!D6)</f>
-        <v>94</v>
+        <f>AVERAGE(LeNgocChau!D5,KhauThanhDao!D5,NgoQuangHuy!D5,HuynhTrongKhang!D6,TaNgocThienPhu!D6)</f>
+        <v>90</v>
       </c>
       <c r="E6" s="72">
-        <f>AVERAGE(KhauThanhDao!E6,NgoQuangHuy!E6,LeNgocChau!E5,HuynhTrongKhang!E6,TaNgocThienPhu!E6)</f>
-        <v>94</v>
+        <f>AVERAGE(LeNgocChau!E5,KhauThanhDao!E5,NgoQuangHuy!E5,HuynhTrongKhang!E6,TaNgocThienPhu!E6)</f>
+        <v>90</v>
       </c>
       <c r="F6" s="72">
-        <f>AVERAGE(KhauThanhDao!F6,NgoQuangHuy!F6,LeNgocChau!F5,HuynhTrongKhang!F6,TaNgocThienPhu!F6)</f>
-        <v>94</v>
+        <f>AVERAGE(LeNgocChau!F5,KhauThanhDao!F5,NgoQuangHuy!F5,HuynhTrongKhang!F6,TaNgocThienPhu!F6)</f>
+        <v>90</v>
       </c>
       <c r="G6" s="58">
         <f t="shared" si="0"/>
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H6" s="42" t="s">
         <v>24</v>
@@ -3634,9 +3633,6 @@
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="142"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3661,7 +3657,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3828,27 +3824,27 @@
         <v>15</v>
       </c>
       <c r="C6" s="51">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" s="51">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6" s="51">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F6" s="51">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G6" s="58">
         <f t="shared" si="0"/>
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="H6" s="73">
         <v>0</v>
       </c>
       <c r="I6" s="73">
         <f t="shared" si="1"/>
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="J6" s="42" t="s">
         <v>24</v>
